--- a/data/neut_assays/plate_reader_data/VIDD4_NeutralizationAssay.xlsx
+++ b/data/neut_assays/plate_reader_data/VIDD4_NeutralizationAssay.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juhyemlee/Google Drive/Bloom_Lab/Perth2009_MAP/NeutralizationAssays/mutvalidation/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="32940" yWindow="460" windowWidth="27040" windowHeight="16820" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="WT" sheetId="2" r:id="rId1"/>
     <sheet name="F159G" sheetId="1" r:id="rId2"/>
     <sheet name="K189D" sheetId="3" r:id="rId3"/>
     <sheet name="F193D" sheetId="4" r:id="rId4"/>
+    <sheet name="WT2" sheetId="5" r:id="rId5"/>
+    <sheet name="K160T" sheetId="6" r:id="rId6"/>
+    <sheet name="L157D" sheetId="7" r:id="rId7"/>
+    <sheet name="F193F" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -385,8 +384,364 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="79">
   <si>
     <t>Application: Tecan i-control</t>
   </si>
@@ -572,6 +927,57 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>10:31:54 AM</t>
+  </si>
+  <si>
+    <t>FHCRC\reguia</t>
+  </si>
+  <si>
+    <t>5/23/2019 10:32:50 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 24.6 °C</t>
+  </si>
+  <si>
+    <t>5/23/2019 10:33:46 AM</t>
+  </si>
+  <si>
+    <t>10:29:32 AM</t>
+  </si>
+  <si>
+    <t>5/23/2019 10:30:35 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 24.5 °C</t>
+  </si>
+  <si>
+    <t>5/23/2019 10:31:31 AM</t>
+  </si>
+  <si>
+    <t>10:27:14 AM</t>
+  </si>
+  <si>
+    <t>5/23/2019 10:28:17 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 24.4 °C</t>
+  </si>
+  <si>
+    <t>5/23/2019 10:29:13 AM</t>
+  </si>
+  <si>
+    <t>10:18:53 AM</t>
+  </si>
+  <si>
+    <t>5/23/2019 10:19:59 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 24.1 °C</t>
+  </si>
+  <si>
+    <t>5/23/2019 10:20:55 AM</t>
   </si>
 </sst>
 </file>
@@ -751,7 +1157,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -786,7 +1192,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1001,9 +1407,9 @@
       <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1011,7 +1417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1019,7 +1425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1027,7 +1433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1035,7 +1441,7 @@
         <v>43580</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1043,7 +1449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1051,7 +1457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1059,7 +1465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1067,17 +1473,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1085,12 +1491,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1101,7 +1507,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1112,7 +1518,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1123,7 +1529,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1134,7 +1540,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1145,7 +1551,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1156,7 +1562,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1167,7 +1573,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1178,7 +1584,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1189,7 +1595,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1200,7 +1606,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1208,12 +1614,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="B30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -1254,12 +1660,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
@@ -1300,7 +1706,7 @@
         <v>16225</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -1341,7 +1747,7 @@
         <v>37510</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
@@ -1382,7 +1788,7 @@
         <v>23519</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
@@ -1423,7 +1829,7 @@
         <v>24065</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
@@ -1464,7 +1870,7 @@
         <v>23964</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -1505,12 +1911,12 @@
         <v>35013</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1521,6 +1927,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1532,9 +1943,9 @@
       <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1542,7 +1953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1550,7 +1961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1558,7 +1969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1566,7 +1977,7 @@
         <v>43580</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1574,7 +1985,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1582,7 +1993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1590,7 +2001,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1598,17 +2009,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1616,12 +2027,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1632,7 +2043,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1643,7 +2054,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1654,7 +2065,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1665,7 +2076,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1676,7 +2087,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1687,7 +2098,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1698,7 +2109,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1709,7 +2120,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1720,7 +2131,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1731,7 +2142,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1739,12 +2150,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="B30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -1785,12 +2196,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
@@ -1831,7 +2242,7 @@
         <v>8798</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -1872,7 +2283,7 @@
         <v>28952</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
@@ -1913,7 +2324,7 @@
         <v>11961</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
@@ -1954,7 +2365,7 @@
         <v>11911</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
@@ -1995,7 +2406,7 @@
         <v>12106</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -2036,12 +2447,12 @@
         <v>26947</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -2052,6 +2463,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2063,9 +2479,9 @@
       <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2073,7 +2489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2081,7 +2497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2089,7 +2505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2097,7 +2513,7 @@
         <v>43580</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2105,7 +2521,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2113,7 +2529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2121,7 +2537,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2129,17 +2545,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2147,12 +2563,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2163,7 +2579,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2174,7 +2590,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2185,7 +2601,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2196,7 +2612,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2207,7 +2623,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2218,7 +2634,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2229,7 +2645,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2240,7 +2656,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2251,7 +2667,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2262,7 +2678,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2270,12 +2686,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="B30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -2316,12 +2732,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
@@ -2362,7 +2778,7 @@
         <v>13868</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -2403,7 +2819,7 @@
         <v>34395</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
@@ -2444,7 +2860,7 @@
         <v>19086</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
@@ -2485,7 +2901,7 @@
         <v>18893</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
@@ -2526,7 +2942,7 @@
         <v>19120</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -2567,12 +2983,12 @@
         <v>34287</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -2583,6 +2999,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2590,13 +3011,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:A39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2604,7 +3025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2612,7 +3033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2620,7 +3041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2628,7 +3049,7 @@
         <v>43580</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2636,7 +3057,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2644,7 +3065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2652,7 +3073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2660,17 +3081,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2678,12 +3099,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2694,7 +3115,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2705,7 +3126,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2716,7 +3137,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2727,7 +3148,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2738,7 +3159,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2749,7 +3170,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2760,7 +3181,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2771,7 +3192,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2782,7 +3203,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2793,7 +3214,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2801,12 +3222,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="B30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -2847,12 +3268,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
@@ -2893,7 +3314,7 @@
         <v>9631</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -2934,7 +3355,7 @@
         <v>33264</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
@@ -2975,7 +3396,7 @@
         <v>13737</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
@@ -3016,7 +3437,7 @@
         <v>13858</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
@@ -3057,7 +3478,7 @@
         <v>13521</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -3098,12 +3519,12 @@
         <v>32648</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -3114,5 +3535,2442 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>108</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32">
+        <v>13731</v>
+      </c>
+      <c r="C32">
+        <v>13756</v>
+      </c>
+      <c r="D32">
+        <v>14147</v>
+      </c>
+      <c r="E32">
+        <v>14455</v>
+      </c>
+      <c r="F32">
+        <v>14749</v>
+      </c>
+      <c r="G32">
+        <v>14931</v>
+      </c>
+      <c r="H32">
+        <v>14849</v>
+      </c>
+      <c r="I32">
+        <v>14790</v>
+      </c>
+      <c r="J32">
+        <v>14511</v>
+      </c>
+      <c r="K32">
+        <v>14104</v>
+      </c>
+      <c r="L32">
+        <v>13606</v>
+      </c>
+      <c r="M32">
+        <v>13102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>20228</v>
+      </c>
+      <c r="C33">
+        <v>20341</v>
+      </c>
+      <c r="D33">
+        <v>20594</v>
+      </c>
+      <c r="E33">
+        <v>20874</v>
+      </c>
+      <c r="F33">
+        <v>20908</v>
+      </c>
+      <c r="G33">
+        <v>21074</v>
+      </c>
+      <c r="H33">
+        <v>21100</v>
+      </c>
+      <c r="I33">
+        <v>21064</v>
+      </c>
+      <c r="J33">
+        <v>20790</v>
+      </c>
+      <c r="K33">
+        <v>20385</v>
+      </c>
+      <c r="L33">
+        <v>20112</v>
+      </c>
+      <c r="M33">
+        <v>20099</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>34058</v>
+      </c>
+      <c r="C34">
+        <v>35013</v>
+      </c>
+      <c r="D34">
+        <v>37596</v>
+      </c>
+      <c r="E34">
+        <v>39323</v>
+      </c>
+      <c r="F34">
+        <v>38942</v>
+      </c>
+      <c r="G34">
+        <v>40501</v>
+      </c>
+      <c r="H34">
+        <v>39704</v>
+      </c>
+      <c r="I34">
+        <v>39436</v>
+      </c>
+      <c r="J34">
+        <v>38764</v>
+      </c>
+      <c r="K34">
+        <v>38603</v>
+      </c>
+      <c r="L34">
+        <v>37346</v>
+      </c>
+      <c r="M34">
+        <v>36845</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>34384</v>
+      </c>
+      <c r="C35">
+        <v>35160</v>
+      </c>
+      <c r="D35">
+        <v>36885</v>
+      </c>
+      <c r="E35">
+        <v>37534</v>
+      </c>
+      <c r="F35">
+        <v>32959</v>
+      </c>
+      <c r="G35">
+        <v>30470</v>
+      </c>
+      <c r="H35">
+        <v>25492</v>
+      </c>
+      <c r="I35">
+        <v>21515</v>
+      </c>
+      <c r="J35">
+        <v>20584</v>
+      </c>
+      <c r="K35">
+        <v>21441</v>
+      </c>
+      <c r="L35">
+        <v>23599</v>
+      </c>
+      <c r="M35">
+        <v>28361</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>35766</v>
+      </c>
+      <c r="C36">
+        <v>34647</v>
+      </c>
+      <c r="D36">
+        <v>35805</v>
+      </c>
+      <c r="E36">
+        <v>36323</v>
+      </c>
+      <c r="F36">
+        <v>33859</v>
+      </c>
+      <c r="G36">
+        <v>30351</v>
+      </c>
+      <c r="H36">
+        <v>25567</v>
+      </c>
+      <c r="I36">
+        <v>20935</v>
+      </c>
+      <c r="J36">
+        <v>20587</v>
+      </c>
+      <c r="K36">
+        <v>21258</v>
+      </c>
+      <c r="L36">
+        <v>23554</v>
+      </c>
+      <c r="M36">
+        <v>28486</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>33637</v>
+      </c>
+      <c r="C37">
+        <v>35186</v>
+      </c>
+      <c r="D37">
+        <v>35720</v>
+      </c>
+      <c r="E37">
+        <v>33225</v>
+      </c>
+      <c r="F37">
+        <v>33688</v>
+      </c>
+      <c r="G37">
+        <v>28376</v>
+      </c>
+      <c r="H37">
+        <v>25798</v>
+      </c>
+      <c r="I37">
+        <v>21009</v>
+      </c>
+      <c r="J37">
+        <v>20219</v>
+      </c>
+      <c r="K37">
+        <v>21064</v>
+      </c>
+      <c r="L37">
+        <v>23034</v>
+      </c>
+      <c r="M37">
+        <v>28503</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>33924</v>
+      </c>
+      <c r="C38">
+        <v>34498</v>
+      </c>
+      <c r="D38">
+        <v>35288</v>
+      </c>
+      <c r="E38">
+        <v>34255</v>
+      </c>
+      <c r="F38">
+        <v>37598</v>
+      </c>
+      <c r="G38">
+        <v>36913</v>
+      </c>
+      <c r="H38">
+        <v>36830</v>
+      </c>
+      <c r="I38">
+        <v>36959</v>
+      </c>
+      <c r="J38">
+        <v>35395</v>
+      </c>
+      <c r="K38">
+        <v>36091</v>
+      </c>
+      <c r="L38">
+        <v>34528</v>
+      </c>
+      <c r="M38">
+        <v>32919</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39">
+        <v>12930</v>
+      </c>
+      <c r="C39">
+        <v>12960</v>
+      </c>
+      <c r="D39">
+        <v>13352</v>
+      </c>
+      <c r="E39">
+        <v>13590</v>
+      </c>
+      <c r="F39">
+        <v>13978</v>
+      </c>
+      <c r="G39">
+        <v>14108</v>
+      </c>
+      <c r="H39">
+        <v>14043</v>
+      </c>
+      <c r="I39">
+        <v>14012</v>
+      </c>
+      <c r="J39">
+        <v>13811</v>
+      </c>
+      <c r="K39">
+        <v>13274</v>
+      </c>
+      <c r="L39">
+        <v>13180</v>
+      </c>
+      <c r="M39">
+        <v>12662</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>99</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32">
+        <v>7266</v>
+      </c>
+      <c r="C32">
+        <v>7278</v>
+      </c>
+      <c r="D32">
+        <v>7488</v>
+      </c>
+      <c r="E32">
+        <v>7668</v>
+      </c>
+      <c r="F32">
+        <v>7796</v>
+      </c>
+      <c r="G32">
+        <v>7781</v>
+      </c>
+      <c r="H32">
+        <v>7776</v>
+      </c>
+      <c r="I32">
+        <v>7803</v>
+      </c>
+      <c r="J32">
+        <v>7602</v>
+      </c>
+      <c r="K32">
+        <v>7407</v>
+      </c>
+      <c r="L32">
+        <v>7208</v>
+      </c>
+      <c r="M32">
+        <v>6863</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>11230</v>
+      </c>
+      <c r="C33">
+        <v>11212</v>
+      </c>
+      <c r="D33">
+        <v>11334</v>
+      </c>
+      <c r="E33">
+        <v>11434</v>
+      </c>
+      <c r="F33">
+        <v>11628</v>
+      </c>
+      <c r="G33">
+        <v>11660</v>
+      </c>
+      <c r="H33">
+        <v>11492</v>
+      </c>
+      <c r="I33">
+        <v>11580</v>
+      </c>
+      <c r="J33">
+        <v>11447</v>
+      </c>
+      <c r="K33">
+        <v>11231</v>
+      </c>
+      <c r="L33">
+        <v>11105</v>
+      </c>
+      <c r="M33">
+        <v>11021</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>28668</v>
+      </c>
+      <c r="C34">
+        <v>37135</v>
+      </c>
+      <c r="D34">
+        <v>38177</v>
+      </c>
+      <c r="E34">
+        <v>37834</v>
+      </c>
+      <c r="F34">
+        <v>39779</v>
+      </c>
+      <c r="G34">
+        <v>41805</v>
+      </c>
+      <c r="H34">
+        <v>39841</v>
+      </c>
+      <c r="I34">
+        <v>41272</v>
+      </c>
+      <c r="J34">
+        <v>40226</v>
+      </c>
+      <c r="K34">
+        <v>38987</v>
+      </c>
+      <c r="L34">
+        <v>36380</v>
+      </c>
+      <c r="M34">
+        <v>32545</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>26933</v>
+      </c>
+      <c r="C35">
+        <v>35063</v>
+      </c>
+      <c r="D35">
+        <v>38001</v>
+      </c>
+      <c r="E35">
+        <v>37627</v>
+      </c>
+      <c r="F35">
+        <v>38307</v>
+      </c>
+      <c r="G35">
+        <v>35436</v>
+      </c>
+      <c r="H35">
+        <v>28806</v>
+      </c>
+      <c r="I35">
+        <v>18646</v>
+      </c>
+      <c r="J35">
+        <v>12066</v>
+      </c>
+      <c r="K35">
+        <v>11769</v>
+      </c>
+      <c r="L35">
+        <v>12807</v>
+      </c>
+      <c r="M35">
+        <v>15136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>24488</v>
+      </c>
+      <c r="C36">
+        <v>33619</v>
+      </c>
+      <c r="D36">
+        <v>36403</v>
+      </c>
+      <c r="E36">
+        <v>39342</v>
+      </c>
+      <c r="F36">
+        <v>37936</v>
+      </c>
+      <c r="G36">
+        <v>35445</v>
+      </c>
+      <c r="H36">
+        <v>28462</v>
+      </c>
+      <c r="I36">
+        <v>19858</v>
+      </c>
+      <c r="J36">
+        <v>12308</v>
+      </c>
+      <c r="K36">
+        <v>11677</v>
+      </c>
+      <c r="L36">
+        <v>12795</v>
+      </c>
+      <c r="M36">
+        <v>15247</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>26605</v>
+      </c>
+      <c r="C37">
+        <v>32749</v>
+      </c>
+      <c r="D37">
+        <v>36352</v>
+      </c>
+      <c r="E37">
+        <v>34565</v>
+      </c>
+      <c r="F37">
+        <v>35268</v>
+      </c>
+      <c r="G37">
+        <v>34849</v>
+      </c>
+      <c r="H37">
+        <v>28204</v>
+      </c>
+      <c r="I37">
+        <v>17670</v>
+      </c>
+      <c r="J37">
+        <v>11924</v>
+      </c>
+      <c r="K37">
+        <v>11622</v>
+      </c>
+      <c r="L37">
+        <v>12764</v>
+      </c>
+      <c r="M37">
+        <v>15226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>26081</v>
+      </c>
+      <c r="C38">
+        <v>33106</v>
+      </c>
+      <c r="D38">
+        <v>33636</v>
+      </c>
+      <c r="E38">
+        <v>35096</v>
+      </c>
+      <c r="F38">
+        <v>37830</v>
+      </c>
+      <c r="G38">
+        <v>38071</v>
+      </c>
+      <c r="H38">
+        <v>35735</v>
+      </c>
+      <c r="I38">
+        <v>37360</v>
+      </c>
+      <c r="J38">
+        <v>36172</v>
+      </c>
+      <c r="K38">
+        <v>35290</v>
+      </c>
+      <c r="L38">
+        <v>33878</v>
+      </c>
+      <c r="M38">
+        <v>30893</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39">
+        <v>6639</v>
+      </c>
+      <c r="C39">
+        <v>6748</v>
+      </c>
+      <c r="D39">
+        <v>6888</v>
+      </c>
+      <c r="E39">
+        <v>7069</v>
+      </c>
+      <c r="F39">
+        <v>7221</v>
+      </c>
+      <c r="G39">
+        <v>7395</v>
+      </c>
+      <c r="H39">
+        <v>7282</v>
+      </c>
+      <c r="I39">
+        <v>7336</v>
+      </c>
+      <c r="J39">
+        <v>7156</v>
+      </c>
+      <c r="K39">
+        <v>7014</v>
+      </c>
+      <c r="L39">
+        <v>6739</v>
+      </c>
+      <c r="M39">
+        <v>6569</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>101</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32">
+        <v>7799</v>
+      </c>
+      <c r="C32">
+        <v>8147</v>
+      </c>
+      <c r="D32">
+        <v>8449</v>
+      </c>
+      <c r="E32">
+        <v>8724</v>
+      </c>
+      <c r="F32">
+        <v>8762</v>
+      </c>
+      <c r="G32">
+        <v>8674</v>
+      </c>
+      <c r="H32">
+        <v>8858</v>
+      </c>
+      <c r="I32">
+        <v>8779</v>
+      </c>
+      <c r="J32">
+        <v>8705</v>
+      </c>
+      <c r="K32">
+        <v>8478</v>
+      </c>
+      <c r="L32">
+        <v>8175</v>
+      </c>
+      <c r="M32">
+        <v>7770</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>10708</v>
+      </c>
+      <c r="C33">
+        <v>10662</v>
+      </c>
+      <c r="D33">
+        <v>11079</v>
+      </c>
+      <c r="E33">
+        <v>11078</v>
+      </c>
+      <c r="F33">
+        <v>11294</v>
+      </c>
+      <c r="G33">
+        <v>11288</v>
+      </c>
+      <c r="H33">
+        <v>11197</v>
+      </c>
+      <c r="I33">
+        <v>11315</v>
+      </c>
+      <c r="J33">
+        <v>11093</v>
+      </c>
+      <c r="K33">
+        <v>11005</v>
+      </c>
+      <c r="L33">
+        <v>10823</v>
+      </c>
+      <c r="M33">
+        <v>10818</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>32020</v>
+      </c>
+      <c r="C34">
+        <v>33292</v>
+      </c>
+      <c r="D34">
+        <v>33176</v>
+      </c>
+      <c r="E34">
+        <v>35955</v>
+      </c>
+      <c r="F34">
+        <v>34809</v>
+      </c>
+      <c r="G34">
+        <v>36589</v>
+      </c>
+      <c r="H34">
+        <v>34681</v>
+      </c>
+      <c r="I34">
+        <v>36398</v>
+      </c>
+      <c r="J34">
+        <v>35248</v>
+      </c>
+      <c r="K34">
+        <v>34650</v>
+      </c>
+      <c r="L34">
+        <v>31896</v>
+      </c>
+      <c r="M34">
+        <v>31366</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>30248</v>
+      </c>
+      <c r="C35">
+        <v>32544</v>
+      </c>
+      <c r="D35">
+        <v>33221</v>
+      </c>
+      <c r="E35">
+        <v>31924</v>
+      </c>
+      <c r="F35">
+        <v>27928</v>
+      </c>
+      <c r="G35">
+        <v>22995</v>
+      </c>
+      <c r="H35">
+        <v>14227</v>
+      </c>
+      <c r="I35">
+        <v>11455</v>
+      </c>
+      <c r="J35">
+        <v>10988</v>
+      </c>
+      <c r="K35">
+        <v>11492</v>
+      </c>
+      <c r="L35">
+        <v>12759</v>
+      </c>
+      <c r="M35">
+        <v>15623</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>28031</v>
+      </c>
+      <c r="C36">
+        <v>31149</v>
+      </c>
+      <c r="D36">
+        <v>32592</v>
+      </c>
+      <c r="E36">
+        <v>29907</v>
+      </c>
+      <c r="F36">
+        <v>28782</v>
+      </c>
+      <c r="G36">
+        <v>20705</v>
+      </c>
+      <c r="H36">
+        <v>15588</v>
+      </c>
+      <c r="I36">
+        <v>11489</v>
+      </c>
+      <c r="J36">
+        <v>10951</v>
+      </c>
+      <c r="K36">
+        <v>11396</v>
+      </c>
+      <c r="L36">
+        <v>12801</v>
+      </c>
+      <c r="M36">
+        <v>15683</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>27818</v>
+      </c>
+      <c r="C37">
+        <v>31467</v>
+      </c>
+      <c r="D37">
+        <v>32228</v>
+      </c>
+      <c r="E37">
+        <v>28859</v>
+      </c>
+      <c r="F37">
+        <v>27698</v>
+      </c>
+      <c r="G37">
+        <v>22465</v>
+      </c>
+      <c r="H37">
+        <v>14442</v>
+      </c>
+      <c r="I37">
+        <v>11188</v>
+      </c>
+      <c r="J37">
+        <v>10735</v>
+      </c>
+      <c r="K37">
+        <v>11316</v>
+      </c>
+      <c r="L37">
+        <v>12726</v>
+      </c>
+      <c r="M37">
+        <v>15384</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>27642</v>
+      </c>
+      <c r="C38">
+        <v>30393</v>
+      </c>
+      <c r="D38">
+        <v>30422</v>
+      </c>
+      <c r="E38">
+        <v>31851</v>
+      </c>
+      <c r="F38">
+        <v>31799</v>
+      </c>
+      <c r="G38">
+        <v>31062</v>
+      </c>
+      <c r="H38">
+        <v>32577</v>
+      </c>
+      <c r="I38">
+        <v>32144</v>
+      </c>
+      <c r="J38">
+        <v>32716</v>
+      </c>
+      <c r="K38">
+        <v>29606</v>
+      </c>
+      <c r="L38">
+        <v>29825</v>
+      </c>
+      <c r="M38">
+        <v>26617</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39">
+        <v>7740</v>
+      </c>
+      <c r="C39">
+        <v>7632</v>
+      </c>
+      <c r="D39">
+        <v>7898</v>
+      </c>
+      <c r="E39">
+        <v>8057</v>
+      </c>
+      <c r="F39">
+        <v>8461</v>
+      </c>
+      <c r="G39">
+        <v>8024</v>
+      </c>
+      <c r="H39">
+        <v>8293</v>
+      </c>
+      <c r="I39">
+        <v>8654</v>
+      </c>
+      <c r="J39">
+        <v>8064</v>
+      </c>
+      <c r="K39">
+        <v>7887</v>
+      </c>
+      <c r="L39">
+        <v>7693</v>
+      </c>
+      <c r="M39">
+        <v>7441</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>98</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32">
+        <v>6422</v>
+      </c>
+      <c r="C32">
+        <v>6451</v>
+      </c>
+      <c r="D32">
+        <v>6638</v>
+      </c>
+      <c r="E32">
+        <v>6787</v>
+      </c>
+      <c r="F32">
+        <v>6911</v>
+      </c>
+      <c r="G32">
+        <v>6937</v>
+      </c>
+      <c r="H32">
+        <v>6924</v>
+      </c>
+      <c r="I32">
+        <v>6940</v>
+      </c>
+      <c r="J32">
+        <v>6733</v>
+      </c>
+      <c r="K32">
+        <v>6581</v>
+      </c>
+      <c r="L32">
+        <v>6392</v>
+      </c>
+      <c r="M32">
+        <v>6136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>8885</v>
+      </c>
+      <c r="C33">
+        <v>8871</v>
+      </c>
+      <c r="D33">
+        <v>9012</v>
+      </c>
+      <c r="E33">
+        <v>9128</v>
+      </c>
+      <c r="F33">
+        <v>9192</v>
+      </c>
+      <c r="G33">
+        <v>9274</v>
+      </c>
+      <c r="H33">
+        <v>9198</v>
+      </c>
+      <c r="I33">
+        <v>9219</v>
+      </c>
+      <c r="J33">
+        <v>9099</v>
+      </c>
+      <c r="K33">
+        <v>8958</v>
+      </c>
+      <c r="L33">
+        <v>8713</v>
+      </c>
+      <c r="M33">
+        <v>8648</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>24841</v>
+      </c>
+      <c r="C34">
+        <v>29556</v>
+      </c>
+      <c r="D34">
+        <v>33650</v>
+      </c>
+      <c r="E34">
+        <v>33948</v>
+      </c>
+      <c r="F34">
+        <v>34710</v>
+      </c>
+      <c r="G34">
+        <v>36117</v>
+      </c>
+      <c r="H34">
+        <v>36411</v>
+      </c>
+      <c r="I34">
+        <v>36969</v>
+      </c>
+      <c r="J34">
+        <v>35742</v>
+      </c>
+      <c r="K34">
+        <v>33933</v>
+      </c>
+      <c r="L34">
+        <v>32395</v>
+      </c>
+      <c r="M34">
+        <v>30366</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>23575</v>
+      </c>
+      <c r="C35">
+        <v>28311</v>
+      </c>
+      <c r="D35">
+        <v>30493</v>
+      </c>
+      <c r="E35">
+        <v>32048</v>
+      </c>
+      <c r="F35">
+        <v>32155</v>
+      </c>
+      <c r="G35">
+        <v>29450</v>
+      </c>
+      <c r="H35">
+        <v>20753</v>
+      </c>
+      <c r="I35">
+        <v>13892</v>
+      </c>
+      <c r="J35">
+        <v>9160</v>
+      </c>
+      <c r="K35">
+        <v>9454</v>
+      </c>
+      <c r="L35">
+        <v>10476</v>
+      </c>
+      <c r="M35">
+        <v>12648</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>25819</v>
+      </c>
+      <c r="C36">
+        <v>29687</v>
+      </c>
+      <c r="D36">
+        <v>30179</v>
+      </c>
+      <c r="E36">
+        <v>32994</v>
+      </c>
+      <c r="F36">
+        <v>29826</v>
+      </c>
+      <c r="G36">
+        <v>26455</v>
+      </c>
+      <c r="H36">
+        <v>18823</v>
+      </c>
+      <c r="I36">
+        <v>12030</v>
+      </c>
+      <c r="J36">
+        <v>9042</v>
+      </c>
+      <c r="K36">
+        <v>9479</v>
+      </c>
+      <c r="L36">
+        <v>10385</v>
+      </c>
+      <c r="M36">
+        <v>12552</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>23748</v>
+      </c>
+      <c r="C37">
+        <v>29859</v>
+      </c>
+      <c r="D37">
+        <v>27668</v>
+      </c>
+      <c r="E37">
+        <v>29596</v>
+      </c>
+      <c r="F37">
+        <v>29065</v>
+      </c>
+      <c r="G37">
+        <v>25317</v>
+      </c>
+      <c r="H37">
+        <v>19332</v>
+      </c>
+      <c r="I37">
+        <v>10067</v>
+      </c>
+      <c r="J37">
+        <v>8977</v>
+      </c>
+      <c r="K37">
+        <v>9276</v>
+      </c>
+      <c r="L37">
+        <v>10266</v>
+      </c>
+      <c r="M37">
+        <v>12403</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>22699</v>
+      </c>
+      <c r="C38">
+        <v>29388</v>
+      </c>
+      <c r="D38">
+        <v>30226</v>
+      </c>
+      <c r="E38">
+        <v>31625</v>
+      </c>
+      <c r="F38">
+        <v>33110</v>
+      </c>
+      <c r="G38">
+        <v>32872</v>
+      </c>
+      <c r="H38">
+        <v>32180</v>
+      </c>
+      <c r="I38">
+        <v>34102</v>
+      </c>
+      <c r="J38">
+        <v>32082</v>
+      </c>
+      <c r="K38">
+        <v>32351</v>
+      </c>
+      <c r="L38">
+        <v>30634</v>
+      </c>
+      <c r="M38">
+        <v>29052</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39">
+        <v>5879</v>
+      </c>
+      <c r="C39">
+        <v>5892</v>
+      </c>
+      <c r="D39">
+        <v>6171</v>
+      </c>
+      <c r="E39">
+        <v>6244</v>
+      </c>
+      <c r="F39">
+        <v>6411</v>
+      </c>
+      <c r="G39">
+        <v>6507</v>
+      </c>
+      <c r="H39">
+        <v>6469</v>
+      </c>
+      <c r="I39">
+        <v>6438</v>
+      </c>
+      <c r="J39">
+        <v>6269</v>
+      </c>
+      <c r="K39">
+        <v>6079</v>
+      </c>
+      <c r="L39">
+        <v>5916</v>
+      </c>
+      <c r="M39">
+        <v>5764</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>